--- a/TestData/SwagLabs.xlsx
+++ b/TestData/SwagLabs.xlsx
@@ -423,14 +423,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="20.5703125" customWidth="1" style="3" min="1" max="5"/>
-    <col width="9.140625" customWidth="1" style="3" min="6" max="7"/>
-    <col width="9.140625" customWidth="1" style="3" min="8" max="16384"/>
+    <col width="9.140625" customWidth="1" style="3" min="6" max="9"/>
+    <col width="9.140625" customWidth="1" style="3" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -481,6 +481,11 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -503,6 +508,11 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -525,6 +535,11 @@
           <t>Fail</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -547,6 +562,11 @@
           <t>Fail</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -571,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/TestData/SwagLabs.xlsx
+++ b/TestData/SwagLabs.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
